--- a/KnowledgeGraph/data/investment_type.xlsx
+++ b/KnowledgeGraph/data/investment_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="17784" windowHeight="8064"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>拆放同业及买入返售类</t>
   </si>
   <si>
-    <t>是指将资金用于拆放同业及买入返售投资。拆放同业是指金融银行因资金周转需要而在同业间借出的资金头寸，赚取利率的行为；买入返售指商业银行（逆回购方，即资金融出方）与金融机构（正回购方，即资金融入方）按照协议约定先买入金融资产，再按约定价格于到期日返售给该金融机构的资金融通行为。</t>
+    <t>指将资金用于拆放同业及买入返售投资。拆放同业是指金融银行因资金周转需要而在同业间借出的资金头寸，赚取利率的行为；买入返售指商业银行（逆回购方，即资金融出方）与金融机构（正回购方，即资金融入方）按照协议约定先买入金融资产，再按约定价格于到期日返售给该金融机构的资金融通行为。</t>
   </si>
   <si>
     <t>代客境外投资类</t>
@@ -39,7 +39,7 @@
     <t>非标准化债权类</t>
   </si>
   <si>
-    <t>是指投资于非标准化债权资产，非标准化债权资产是指未在银行间市场及证券交易所市场交易的债权性资产，包括但不限于信贷资产、信托贷款、委托债权、承兑汇票、信用证、应收账款、各类受（收）益权、带回购条款的股权性融资等。</t>
+    <t>指投资于非标准化债权资产，非标准化债权资产是指未在银行间市场及证券交易所市场交易的债权性资产，包括但不限于信贷资产、信托贷款、委托债权、承兑汇票、信用证、应收账款、各类受（收）益权、带回购条款的股权性融资等。</t>
   </si>
   <si>
     <t>公募基金类</t>
@@ -57,13 +57,13 @@
     <t>股权类</t>
   </si>
   <si>
-    <t>是指商业银行向符合监管规定的投资者发行，将所募资金直接或间接的投资于企业股权（收益权）的投资产品，产品到期通过第三方受让，股东回购等方式实现投资退出的产品。</t>
+    <t>指商业银行向符合监管规定的投资者发行，将所募资金直接或间接的投资于企业股权（收益权）的投资产品，产品到期通过第三方受让，股东回购等方式实现投资退出的产品。</t>
   </si>
   <si>
     <t>混合类</t>
   </si>
   <si>
-    <t>是指投资于股票、债券、基金等多种类型的产品，设计的目的是让投资者通过选择一款基金品种就能实现投资的多元化。</t>
+    <t>指投资于股票、债券、基金等多种类型的产品，设计的目的是让投资者通过选择一款基金品种就能实现投资的多元化。</t>
   </si>
   <si>
     <t>货币市场工具类</t>
@@ -75,7 +75,7 @@
     <t>结构性投资类</t>
   </si>
   <si>
-    <t>是运用金融工程技术、将存款、零息债券等固定收益产品与金融衍生品（如远期、期权、掉期等）组合在一起而形成的一种新型金融产品。</t>
+    <t>运用金融工程技术、将存款、零息债券等固定收益产品与金融衍生品（如远期、期权、掉期等）组合在一起而形成的一种新型金融产品。</t>
   </si>
   <si>
     <t>理财直接融资工具类</t>
@@ -105,7 +105,7 @@
     <t>债权类</t>
   </si>
   <si>
-    <t>债权类产品是指银行募集客户资金，进行投资决策，将资金主要投向银行间债券市场、国债市场和企业债市场，到期之后向客户结算投资收益</t>
+    <t>债权类产品是指银行募集客户资金，进行投资决策，将资金主要投向银行间债券市场、国债市场和企业债市场，到期之后向客户结算投资收益。</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,74 +128,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +165,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -217,69 +241,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,12 +280,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,169 +388,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,11 +474,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +509,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,54 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -590,148 +576,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1077,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
